--- a/不具合報告一覧1.xlsx
+++ b/不具合報告一覧1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ユーザー\nishio\Documents\02.MITSUBISHI\90.MIITS 客セ\不具合報告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D310D1D-5EBF-4B39-8F6E-23EDFA48CADE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD46DC82-0E27-478D-9C81-F4F08286B518}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3570" windowHeight="4980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,27 +928,6 @@
   </si>
   <si>
     <t>K100</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver.不明
-先日（K098　7/24　ID:5144388）の報告は不具合でないことを回答しています。
-</t>
-    <rPh sb="4" eb="6">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センジツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カイトウ</t>
-    </rPh>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -6101,6 +6080,27 @@
     </r>
     <rPh sb="505" eb="506">
       <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Ver.不明
+先日（K098　7/24　ID:5144388）の報告は不具合でないことを回答しています。
+?</t>
+    <rPh sb="4" eb="6">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センジツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -7791,7 +7791,7 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
@@ -7846,13 +7846,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.55000000000000004">
@@ -7869,7 +7869,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.55000000000000004">
@@ -7886,7 +7886,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.55000000000000004">
@@ -7903,7 +7903,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.55000000000000004">
@@ -7920,7 +7920,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7948,7 +7948,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.55000000000000004">
@@ -7965,7 +7965,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.55000000000000004">
@@ -7982,7 +7982,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.55000000000000004">
@@ -7999,7 +7999,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.55000000000000004">
@@ -8013,10 +8013,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.55000000000000004">
@@ -8033,7 +8033,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.55000000000000004">
@@ -8067,7 +8067,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.55000000000000004">
@@ -8084,7 +8084,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="65" x14ac:dyDescent="0.55000000000000004">
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.55000000000000004">
@@ -8118,7 +8118,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.55000000000000004">
@@ -8135,7 +8135,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.55000000000000004">
@@ -8152,7 +8152,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="6" customFormat="1" ht="384" x14ac:dyDescent="0.55000000000000004">
@@ -8169,7 +8169,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="6" customFormat="1" ht="409" x14ac:dyDescent="0.55000000000000004">
@@ -8186,7 +8186,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="208" x14ac:dyDescent="0.55000000000000004">
@@ -8203,7 +8203,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.55000000000000004">
@@ -8220,7 +8220,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" ht="299" x14ac:dyDescent="0.55000000000000004">
@@ -8234,10 +8234,10 @@
         <v>53</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.55000000000000004">
@@ -8254,7 +8254,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.55000000000000004">
@@ -8271,7 +8271,7 @@
         <v>57</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.55000000000000004">
@@ -8288,7 +8288,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.55000000000000004">
@@ -8305,7 +8305,7 @@
         <v>69</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" ht="260" x14ac:dyDescent="0.55000000000000004">
@@ -8322,7 +8322,7 @@
         <v>68</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8350,7 +8350,7 @@
         <v>74</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.55000000000000004">
@@ -8367,7 +8367,7 @@
         <v>76</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8384,7 +8384,7 @@
         <v>79</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="221" x14ac:dyDescent="0.55000000000000004">
@@ -8398,10 +8398,10 @@
         <v>81</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.55000000000000004">
@@ -8415,10 +8415,10 @@
         <v>82</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="6" customFormat="1" ht="286" x14ac:dyDescent="0.55000000000000004">
@@ -8435,7 +8435,7 @@
         <v>84</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="195" x14ac:dyDescent="0.55000000000000004">
@@ -8452,7 +8452,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8480,7 +8480,7 @@
         <v>168</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8640,7 +8640,7 @@
         <v>145</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8668,7 +8668,7 @@
         <v>107</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="351" x14ac:dyDescent="0.55000000000000004">
@@ -8685,7 +8685,7 @@
         <v>108</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.55000000000000004">
@@ -8702,7 +8702,7 @@
         <v>111</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="6" customFormat="1" ht="390" x14ac:dyDescent="0.55000000000000004">
@@ -8719,7 +8719,7 @@
         <v>112</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="6" customFormat="1" ht="351" x14ac:dyDescent="0.55000000000000004">
@@ -8736,7 +8736,7 @@
         <v>116</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.55000000000000004">
@@ -8750,10 +8750,10 @@
         <v>115</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="377" x14ac:dyDescent="0.55000000000000004">
@@ -8767,10 +8767,10 @@
         <v>118</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.55000000000000004">
@@ -8784,10 +8784,10 @@
         <v>119</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.55000000000000004">
@@ -8801,10 +8801,10 @@
         <v>120</v>
       </c>
       <c r="D65" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="6" customFormat="1" ht="351" x14ac:dyDescent="0.55000000000000004">
@@ -8818,10 +8818,10 @@
         <v>123</v>
       </c>
       <c r="D66" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.55000000000000004">
@@ -8835,10 +8835,10 @@
         <v>124</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.55000000000000004">
@@ -8855,7 +8855,7 @@
         <v>128</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="6" customFormat="1" ht="400" x14ac:dyDescent="0.55000000000000004">
@@ -8872,7 +8872,7 @@
         <v>129</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.55000000000000004">
@@ -8886,10 +8886,10 @@
         <v>127</v>
       </c>
       <c r="D70" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8903,10 +8903,10 @@
         <v>130</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="299" x14ac:dyDescent="0.55000000000000004">
@@ -8920,10 +8920,10 @@
         <v>131</v>
       </c>
       <c r="D72" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="325" x14ac:dyDescent="0.55000000000000004">
@@ -8937,10 +8937,10 @@
         <v>132</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8965,10 +8965,10 @@
         <v>135</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
@@ -8985,7 +8985,7 @@
         <v>144</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
@@ -9002,7 +9002,7 @@
         <v>143</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="182" x14ac:dyDescent="0.55000000000000004">
@@ -9016,10 +9016,10 @@
         <v>138</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="143" x14ac:dyDescent="0.55000000000000004">
@@ -9033,10 +9033,10 @@
         <v>139</v>
       </c>
       <c r="D79" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="156" x14ac:dyDescent="0.55000000000000004">
@@ -9050,10 +9050,10 @@
         <v>140</v>
       </c>
       <c r="D80" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="286" x14ac:dyDescent="0.55000000000000004">
@@ -9067,10 +9067,10 @@
         <v>141</v>
       </c>
       <c r="D81" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="351" x14ac:dyDescent="0.55000000000000004">
@@ -9084,10 +9084,10 @@
         <v>142</v>
       </c>
       <c r="D82" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="364" x14ac:dyDescent="0.55000000000000004">
@@ -9101,10 +9101,10 @@
         <v>146</v>
       </c>
       <c r="D83" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -9118,10 +9118,10 @@
         <v>147</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="273" x14ac:dyDescent="0.55000000000000004">
@@ -9135,10 +9135,10 @@
         <v>148</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="312" x14ac:dyDescent="0.55000000000000004">
@@ -9152,10 +9152,10 @@
         <v>149</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="130" x14ac:dyDescent="0.55000000000000004">
@@ -9169,10 +9169,10 @@
         <v>150</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="377" x14ac:dyDescent="0.55000000000000004">
@@ -9186,10 +9186,10 @@
         <v>151</v>
       </c>
       <c r="D88" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
@@ -9203,10 +9203,10 @@
         <v>152</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="247" x14ac:dyDescent="0.55000000000000004">
@@ -9220,10 +9220,10 @@
         <v>153</v>
       </c>
       <c r="D90" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="247" x14ac:dyDescent="0.55000000000000004">
@@ -9237,10 +9237,10 @@
         <v>154</v>
       </c>
       <c r="D91" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="234" x14ac:dyDescent="0.55000000000000004">
@@ -9254,10 +9254,10 @@
         <v>155</v>
       </c>
       <c r="D92" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="208" x14ac:dyDescent="0.55000000000000004">
@@ -9271,10 +9271,10 @@
         <v>156</v>
       </c>
       <c r="D93" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E93" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -9299,10 +9299,10 @@
         <v>158</v>
       </c>
       <c r="D95" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="247" x14ac:dyDescent="0.55000000000000004">
@@ -9316,10 +9316,10 @@
         <v>159</v>
       </c>
       <c r="D96" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="299" x14ac:dyDescent="0.55000000000000004">
@@ -9333,10 +9333,10 @@
         <v>161</v>
       </c>
       <c r="D97" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E97" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="234" x14ac:dyDescent="0.55000000000000004">
@@ -9350,10 +9350,10 @@
         <v>162</v>
       </c>
       <c r="D98" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="390" x14ac:dyDescent="0.55000000000000004">
@@ -9367,7 +9367,7 @@
         <v>163</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>166</v>
@@ -9384,10 +9384,10 @@
         <v>164</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
@@ -9404,7 +9404,7 @@
         <v>167</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="312" x14ac:dyDescent="0.55000000000000004">
@@ -9418,10 +9418,10 @@
         <v>170</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/不具合報告一覧1.xlsx
+++ b/不具合報告一覧1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ユーザー\nishio\Documents\02.MITSUBISHI\90.MIITS 客セ\不具合報告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD46DC82-0E27-478D-9C81-F4F08286B518}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2BF841C-0FF7-41FF-AECA-10802531AB87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3570" windowHeight="4980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
